--- a/xlsx/净出口_intext.xlsx
+++ b/xlsx/净出口_intext.xlsx
@@ -29,13 +29,13 @@
     <t>出口</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_净出口</t>
+    <t>政策_政策_货币政策_净出口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8F%A3</t>
   </si>
   <si>
-    <t>進口</t>
+    <t>进口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>服務</t>
+    <t>服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E4%B8%9A%E9%83%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%81%AF</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%B8%B8%E5%B8%B3</t>
   </si>
   <si>
-    <t>經常帳</t>
+    <t>经常帐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%94%B6%E6%94%AF%E5%B8%90</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E9%8C%A2</t>
   </si>
   <si>
-    <t>洗錢</t>
+    <t>洗钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%83%E7%A8%85</t>
   </si>
   <si>
-    <t>逃稅</t>
+    <t>逃税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B0%E7%A7%81</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%A3%81%E5%A3%98</t>
   </si>
   <si>
-    <t>貿易壁壘</t>
+    <t>贸易壁垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%B0%A3%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>景氣循環</t>
+    <t>景气循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%A8%E8%93%84</t>

--- a/xlsx/净出口_intext.xlsx
+++ b/xlsx/净出口_intext.xlsx
@@ -29,7 +29,7 @@
     <t>出口</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_净出口</t>
+    <t>体育运动_体育运动_纳粹德国_净出口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8F%A3</t>
